--- a/config_1.19/fish_3d_yutu_random_5.xlsx
+++ b/config_1.19/fish_3d_yutu_random_5.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,15 +420,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +536,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,7 +1391,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1810,10 +1809,10 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="23">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H17" s="23">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1834,10 +1833,10 @@
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="23">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H18" s="23">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1858,10 +1857,10 @@
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="23">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H19" s="23">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1882,10 +1881,10 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="23">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H20" s="23">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>
